--- a/data/old/FOREX_7.xlsx
+++ b/data/old/FOREX_7.xlsx
@@ -161,7 +161,7 @@
     <t>Source: Currency Composition of Official Foreign Exchange Reserves (COFER), International Financial Statistics (IFS)</t>
   </si>
   <si>
-    <t>Data extracted from http://data.imf.org/ on: 12/29/2021 3:51:43 AM</t>
+    <t>Data extracted from http://data.imf.org/ on: 2/10/2022 10:19:37 PM</t>
   </si>
 </sst>
 </file>
